--- a/artfynd/A 54828-2021 artfynd.xlsx
+++ b/artfynd/A 54828-2021 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY62"/>
+  <dimension ref="A1:AY63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7595,6 +7595,130 @@
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>102234570</v>
+      </c>
+      <c r="B63" t="n">
+        <v>99013</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Gammelstillavägen, Hofors, Gstr</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>590266</v>
+      </c>
+      <c r="R63" t="n">
+        <v>6701345</v>
+      </c>
+      <c r="S63" t="n">
+        <v>25</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>16:34</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>16:34</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Maj-Lis Koivisto</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Maj-Lis Koivisto</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 54828-2021 artfynd.xlsx
+++ b/artfynd/A 54828-2021 artfynd.xlsx
@@ -7600,7 +7600,7 @@
         <v>102234570</v>
       </c>
       <c r="B63" t="n">
-        <v>99013</v>
+        <v>99014</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>

--- a/artfynd/A 54828-2021 artfynd.xlsx
+++ b/artfynd/A 54828-2021 artfynd.xlsx
@@ -7600,7 +7600,7 @@
         <v>102234570</v>
       </c>
       <c r="B63" t="n">
-        <v>99014</v>
+        <v>99015</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>

--- a/artfynd/A 54828-2021 artfynd.xlsx
+++ b/artfynd/A 54828-2021 artfynd.xlsx
@@ -7600,7 +7600,7 @@
         <v>102234570</v>
       </c>
       <c r="B63" t="n">
-        <v>99015</v>
+        <v>99018</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
